--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.1936220409679E-05</v>
+        <v>1.194336911590932E-05</v>
       </c>
       <c r="E2">
-        <v>1.1936220409679E-05</v>
+        <v>1.194336911590932E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.511205181607153</v>
+        <v>0.5111863404899493</v>
       </c>
       <c r="E3">
-        <v>0.511205181607153</v>
+        <v>0.5111863404899493</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6460741930570065</v>
+        <v>0.6463990397357803</v>
       </c>
       <c r="E4">
-        <v>0.6460741930570065</v>
+        <v>0.6463990397357803</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.294722823471721</v>
+        <v>0.2943143595054112</v>
       </c>
       <c r="E5">
-        <v>0.294722823471721</v>
+        <v>0.2943143595054112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.2565281274856245</v>
+        <v>0.2564953040126339</v>
       </c>
       <c r="E6">
-        <v>0.2565281274856245</v>
+        <v>0.2564953040126339</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.6573677155058069</v>
+        <v>0.9999420889760546</v>
       </c>
       <c r="E7">
-        <v>0.3426322844941931</v>
+        <v>5.791102394536729E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.5682122110798663</v>
+        <v>0.6917293301616004</v>
       </c>
       <c r="E8">
-        <v>0.4317877889201337</v>
+        <v>0.3082706698383996</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.6408644492322698</v>
+        <v>0.5903995597952789</v>
       </c>
       <c r="E9">
-        <v>0.3591355507677302</v>
+        <v>0.4096004402047211</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5856904415714339</v>
+        <v>0.09503836603061321</v>
       </c>
       <c r="E10">
-        <v>0.4143095584285661</v>
+        <v>0.9049616339693868</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6100525683914676</v>
+        <v>0.0564600434686782</v>
       </c>
       <c r="E11">
-        <v>0.3899474316085324</v>
+        <v>0.9435399565313218</v>
       </c>
       <c r="F11">
-        <v>0.4858964383602142</v>
+        <v>0.8523609042167664</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.263258684711795E-07</v>
+        <v>1.261254158108405E-07</v>
       </c>
       <c r="E12">
-        <v>1.263258684711795E-07</v>
+        <v>1.261254158108405E-07</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9537218114732812</v>
+        <v>0.9539727933305705</v>
       </c>
       <c r="E13">
-        <v>0.9537218114732812</v>
+        <v>0.9539727933305705</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0003130116802501171</v>
+        <v>0.0003231820774379899</v>
       </c>
       <c r="E14">
-        <v>0.0003130116802501171</v>
+        <v>0.0003231820774379899</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3.974471329216842E-11</v>
+        <v>4.026375932031479E-11</v>
       </c>
       <c r="E15">
-        <v>3.974471329216842E-11</v>
+        <v>4.026375932031479E-11</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.2519226811358581</v>
+        <v>0.25242152854668</v>
       </c>
       <c r="E16">
-        <v>0.2519226811358581</v>
+        <v>0.25242152854668</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9751002701029363</v>
+        <v>0.9999999815895072</v>
       </c>
       <c r="E17">
-        <v>0.02489972989706368</v>
+        <v>1.841049279693863E-08</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9559628591079602</v>
+        <v>0.1627816639883918</v>
       </c>
       <c r="E18">
-        <v>0.04403714089203981</v>
+        <v>0.8372183360116082</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9725455929729158</v>
+        <v>0.4096100523875683</v>
       </c>
       <c r="E19">
-        <v>0.02745440702708424</v>
+        <v>0.5903899476124317</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9592028182120106</v>
+        <v>0.007875475801427967</v>
       </c>
       <c r="E20">
-        <v>0.04079718178798941</v>
+        <v>0.992124524198572</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9673033024359717</v>
+        <v>0.002131725010589395</v>
       </c>
       <c r="E21">
-        <v>0.03269669756402827</v>
+        <v>0.9978682749894106</v>
       </c>
       <c r="F21">
-        <v>0.3536632061004639</v>
+        <v>1.707248330116272</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
